--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DDF430-6C27-40E5-A235-DF92AB0FCF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9399B-B701-4C3B-8439-CAD87C71DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="139">
   <si>
     <t>Part Number</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>CAP15x13x1</t>
+  </si>
+  <si>
+    <t>GRM32ER71H475KA88L</t>
+  </si>
+  <si>
+    <t>4,7мкФ</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2193,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M40" si="3">G28</f>
+        <f t="shared" ref="M28:M41" si="3">G28</f>
         <v>10мкФ</v>
       </c>
     </row>
@@ -2595,6 +2601,33 @@
       <c r="M40" s="5" t="str">
         <f t="shared" si="3"/>
         <v>12пФ</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>4,7мкФ</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9399B-B701-4C3B-8439-CAD87C71DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AAACC9-4DB1-4218-A1EB-1BF147DAD703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="144">
   <si>
     <t>Part Number</t>
   </si>
@@ -481,9 +481,6 @@
     <t xml:space="preserve"> К10-17в-М47-22пФ±5%</t>
   </si>
   <si>
-    <t xml:space="preserve"> К10-17в-М47-12пФ±5%</t>
-  </si>
-  <si>
     <t>300пФ</t>
   </si>
   <si>
@@ -506,6 +503,24 @@
   </si>
   <si>
     <t>4,7мкФ</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>АО "НИИ "Гириконд"</t>
+  </si>
+  <si>
+    <t>АО "Элеконд"</t>
+  </si>
+  <si>
+    <t>ООО "Кулон"</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -605,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -619,7 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -959,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,50 +993,58 @@
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="47" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I2,"-",G2,H2," ",J2)</f>
         <v>К10-79-50В-2,2мкФ±20% Н30</v>
@@ -1057,7 +1079,7 @@
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="5" t="str">
         <f t="shared" ref="L2:L28" si="0">A2&amp;" "&amp;K2</f>
         <v>К10-79-50В-2,2мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1065,8 +1087,14 @@
         <f>G2</f>
         <v>2,2мкФ</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I3,"-",G3,H3," ",J3)</f>
         <v>К10-79-50В-0,1мкФ±20% Н30</v>
@@ -1101,7 +1129,7 @@
       <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,1мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1109,8 +1137,14 @@
         <f t="shared" ref="M3:M27" si="1">G3</f>
         <v>0,1мкФ</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I4,"-",G4,H4," ",J4)</f>
         <v>К10-79-50В-0,01мкФ±20% Н30</v>
@@ -1145,7 +1179,7 @@
       <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,01мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1153,8 +1187,14 @@
         <f t="shared" si="1"/>
         <v>0,01мкФ</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -1189,7 +1229,7 @@
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,01мкФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1197,8 +1237,14 @@
         <f t="shared" si="1"/>
         <v>0,01мкФ</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -1233,7 +1279,7 @@
       <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-25В-4700пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1241,8 +1287,14 @@
         <f t="shared" si="1"/>
         <v>4700пФ</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1277,7 +1329,7 @@
       <c r="K7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-3900пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1285,8 +1337,14 @@
         <f t="shared" si="1"/>
         <v>3900пФ</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1321,7 +1379,7 @@
       <c r="K8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1329,8 +1387,14 @@
         <f t="shared" si="1"/>
         <v>820пФ</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -1365,7 +1429,7 @@
       <c r="K9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-390пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1373,8 +1437,14 @@
         <f t="shared" si="1"/>
         <v>390пФ</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1409,7 +1479,7 @@
       <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-100пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1417,8 +1487,14 @@
         <f t="shared" si="1"/>
         <v>100пФ</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1453,7 +1529,7 @@
       <c r="K11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-47пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1461,8 +1537,14 @@
         <f t="shared" si="1"/>
         <v>47пФ</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -1497,7 +1579,7 @@
       <c r="K12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-36пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1505,8 +1587,14 @@
         <f t="shared" si="1"/>
         <v>36пФ</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -1541,7 +1629,7 @@
       <c r="K13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-12пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1549,8 +1637,14 @@
         <f t="shared" si="1"/>
         <v>12пФ</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -1585,7 +1679,7 @@
       <c r="K14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-10пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1593,8 +1687,14 @@
         <f t="shared" si="1"/>
         <v>10пФ</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -1629,7 +1729,7 @@
       <c r="K15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-1пФ±0,25пФ МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -1637,8 +1737,14 @@
         <f t="shared" si="1"/>
         <v>1пФ</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1671,7 +1777,7 @@
         <f>RIGHT(Лист2!N13,17)</f>
         <v>АЖЯР.673546.004ТУ</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К53-65 "Е"-32В-22мкФ±10% АЖЯР.673546.004ТУ</v>
       </c>
@@ -1679,8 +1785,15 @@
         <f t="shared" si="1"/>
         <v>22мкФ</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="str">
+        <f>RIGHT(Лист2!N13,18)</f>
+        <v xml:space="preserve"> АЖЯР.673546.004ТУ</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>LEFT(Лист2!N14,24)</f>
         <v>К53-65 "D"-16В-22мкФ±10%</v>
@@ -1714,7 +1827,7 @@
         <f>RIGHT(Лист2!N14,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-16В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1722,8 +1835,15 @@
         <f t="shared" si="1"/>
         <v>22мкФ</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="str">
+        <f>RIGHT(Лист2!N14,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>LEFT(Лист2!N15,24)</f>
         <v>К53-65 "D"-20В-22мкФ±10%</v>
@@ -1757,7 +1877,7 @@
         <f>RIGHT(Лист2!N15,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-20В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1765,8 +1885,15 @@
         <f t="shared" si="1"/>
         <v>22мкФ</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="str">
+        <f>RIGHT(Лист2!N15,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>LEFT(Лист2!N16,24)</f>
         <v>К53-65 "С"-10В-22мкФ±10%</v>
@@ -1800,7 +1927,7 @@
         <f>RIGHT(Лист2!N16,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "С"-10В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1808,8 +1935,15 @@
         <f t="shared" si="1"/>
         <v>22мкФ</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="str">
+        <f>RIGHT(Лист2!N16,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>LEFT(Лист2!N17,24)</f>
         <v>К53-65 "D"-32В-10мкФ±10%</v>
@@ -1843,7 +1977,7 @@
         <f>RIGHT(Лист2!N17,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-32В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1851,8 +1985,15 @@
         <f t="shared" si="1"/>
         <v>10мкФ</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="str">
+        <f>RIGHT(Лист2!N17,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>LEFT(Лист2!N18,25)</f>
         <v>К53-65 "E"-50В-6,8мкФ±10%</v>
@@ -1886,7 +2027,7 @@
         <f>RIGHT(Лист2!N18,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "E"-50В-6,8мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1894,8 +2035,15 @@
         <f t="shared" si="1"/>
         <v>6,8мкФ</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="str">
+        <f>RIGHT(Лист2!N18,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>LEFT(Лист2!N19,25)</f>
         <v>К53-65 "А"-20В-2,2мкФ±10%</v>
@@ -1929,7 +2077,7 @@
         <f>RIGHT(Лист2!N19,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "А"-20В-2,2мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
@@ -1937,8 +2085,15 @@
         <f t="shared" si="1"/>
         <v>2,2мкФ</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="str">
+        <f>RIGHT(Лист2!N19,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -1971,7 +2126,7 @@
         <f>RIGHT(Лист2!N20,14)</f>
         <v>ОЖО.460.107 ТУ</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-17в-50В-H90-0,01мкФ+80%/-20% ОЖО.460.107 ТУ</v>
       </c>
@@ -1979,8 +2134,15 @@
         <f t="shared" si="1"/>
         <v>0,01мкФ</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="str">
+        <f>RIGHT(Лист2!N20,14)</f>
+        <v>ОЖО.460.107 ТУ</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -2015,7 +2177,7 @@
         <f>RIGHT(Лист2!N21,17)</f>
         <v>АДПК.431145.007ТУ</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>B33-100В-0,3А-100пФ ±20% МП0 АДПК.431145.007ТУ</v>
       </c>
@@ -2023,8 +2185,15 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">100пФ </v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="str">
+        <f>RIGHT(Лист2!N21,17)</f>
+        <v>АДПК.431145.007ТУ</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2059,7 +2228,7 @@
         <f>RIGHT(Лист2!N22,17)</f>
         <v>АДПК.431145.007ТУ</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>B33-50В-0,5А-1000пФ ±20% МП0 АДПК.431145.007ТУ</v>
       </c>
@@ -2067,8 +2236,15 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">1000пФ </v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="str">
+        <f>RIGHT(Лист2!N22,17)</f>
+        <v>АДПК.431145.007ТУ</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
@@ -2102,7 +2278,7 @@
       <c r="K26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,47мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2110,8 +2286,14 @@
         <f t="shared" si="1"/>
         <v>0,47мкФ</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>109</v>
       </c>
@@ -2146,7 +2328,7 @@
       <c r="K27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-4700пФ±20% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2154,8 +2336,14 @@
         <f t="shared" si="1"/>
         <v>4700пФ</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>113</v>
       </c>
@@ -2188,16 +2376,23 @@
         <f>RIGHT(Лист2!N18,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M41" si="3">G28</f>
+        <f t="shared" ref="M28:M40" si="3">G28</f>
         <v>10мкФ</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(Лист2!N18,18)</f>
+        <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>114</v>
       </c>
@@ -2219,10 +2414,13 @@
       <c r="G29" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L29" s="5" t="str">
         <f t="shared" ref="L29:L40" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2230,8 +2428,14 @@
         <f t="shared" si="3"/>
         <v>1пФ</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -2253,10 +2457,13 @@
       <c r="G30" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К53-65 "D" -16В-22пФ±10% АЖЯР.673546,004ТУ</v>
       </c>
@@ -2264,15 +2471,21 @@
         <f t="shared" si="3"/>
         <v>22пФ</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2287,10 +2500,13 @@
       <c r="G31" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К53-65 "D" -32В-10пФ±10% АЖЯР.673546,004ТУ</v>
       </c>
@@ -2298,15 +2514,21 @@
         <f t="shared" si="3"/>
         <v>10пФ</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2321,10 +2543,13 @@
       <c r="G32" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2332,15 +2557,21 @@
         <f t="shared" si="3"/>
         <v>0,1пФ</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2355,10 +2586,13 @@
       <c r="G33" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К10-79-25В-0,001мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2366,15 +2600,21 @@
         <f t="shared" si="3"/>
         <v>0,001мкФ</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2389,10 +2629,13 @@
       <c r="G34" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К10-79-17В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2400,15 +2643,21 @@
         <f t="shared" si="3"/>
         <v>0,1пФ</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2423,10 +2672,13 @@
       <c r="G35" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35" s="5" t="str">
         <f t="shared" si="4"/>
         <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
@@ -2434,16 +2686,22 @@
         <f t="shared" si="3"/>
         <v>0,1пФ</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>136</v>
+      <c r="C36" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
@@ -2455,12 +2713,15 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36" t="str">
+        <v>130</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> К10-17в-М1500-300пФ±5% ОЖ0.460.107ТУ</v>
       </c>
@@ -2468,16 +2729,22 @@
         <f t="shared" si="3"/>
         <v>300пФ</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>135</v>
+      <c r="C37" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
@@ -2489,12 +2756,15 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37" t="str">
+        <v>131</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> К10-17в-М1500-1200пФ±5% ОЖ0.460.107ТУ</v>
       </c>
@@ -2502,16 +2772,22 @@
         <f t="shared" si="3"/>
         <v>1200пФ</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>136</v>
+      <c r="C38" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
@@ -2523,12 +2799,15 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K38" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38" t="str">
+      <c r="L38" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> К10-17в-М47-33пФ±5% ОЖ0.460.107ТУ</v>
       </c>
@@ -2536,16 +2815,22 @@
         <f t="shared" si="3"/>
         <v>33пФ</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>136</v>
+      <c r="C39" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>17</v>
@@ -2559,10 +2844,13 @@
       <c r="G39" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L39" t="str">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> К10-17в-М47-22пФ±5% ОЖ0.460.107ТУ</v>
       </c>
@@ -2570,15 +2858,23 @@
         <f t="shared" si="3"/>
         <v>22пФ</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
@@ -2589,46 +2885,24 @@
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40" t="str">
+        <v>137</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> К10-17в-М47-12пФ±5% ОЖ0.460.107ТУ</v>
+        <v xml:space="preserve">GRM32ER71H475KA88L </v>
       </c>
       <c r="M40" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>12пФ</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M41" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>4,7мкФ</v>
       </c>
+      <c r="N40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AAACC9-4DB1-4218-A1EB-1BF147DAD703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8A5ED-F014-4FE8-9DC7-60B5A70310A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="145">
   <si>
     <t>Part Number</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
   </si>
 </sst>
 </file>
@@ -975,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2905,9 @@
       <c r="N40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8A5ED-F014-4FE8-9DC7-60B5A70310A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE3FBD-8F83-4A7E-908E-D2EF3C06413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,9 +406,6 @@
     <t>CAPTA</t>
   </si>
   <si>
-    <t>K10-17B1</t>
-  </si>
-  <si>
     <t>BOAStxt</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>K10-17-H90-001u</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,16 +1035,16 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>101</v>
@@ -1793,7 +1793,7 @@
         <v xml:space="preserve"> АЖЯР.673546.004ТУ</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>К53-65 "D"-16В-22мкФ±10%</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -1843,7 +1843,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>К53-65 "D"-20В-22мкФ±10%</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>102</v>
@@ -1893,7 +1893,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>К53-65 "С"-10В-22мкФ±10%</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>103</v>
@@ -1943,7 +1943,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>К53-65 "D"-32В-10мкФ±10%</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>102</v>
@@ -1993,7 +1993,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>К53-65 "E"-50В-6,8мкФ±10%</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>101</v>
@@ -2043,7 +2043,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>К53-65 "А"-20В-2,2мкФ±10%</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>104</v>
@@ -2093,7 +2093,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -2142,7 +2142,7 @@
         <v>ОЖО.460.107 ТУ</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -2193,7 +2193,7 @@
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
@@ -2244,18 +2244,18 @@
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>14</v>
@@ -2293,12 +2293,12 @@
         <v>12</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
@@ -2343,15 +2343,15 @@
         <v>12</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>101</v>
@@ -2392,18 +2392,18 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>17</v>
@@ -2435,15 +2435,15 @@
         <v>12</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>102</v>
@@ -2458,13 +2458,13 @@
         <v>10</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2475,18 +2475,18 @@
         <v>22пФ</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>102</v>
@@ -2507,7 +2507,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L31" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2518,21 +2518,21 @@
         <v>10пФ</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2564,12 +2564,12 @@
         <v>12</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
@@ -2587,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2607,12 +2607,12 @@
         <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -2630,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2650,12 +2650,12 @@
         <v>12</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
@@ -2673,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2693,18 +2693,18 @@
         <v>12</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
@@ -2716,13 +2716,13 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2733,21 +2733,21 @@
         <v>300пФ</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
@@ -2759,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2776,21 +2776,21 @@
         <v>1200пФ</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
@@ -2802,13 +2802,13 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2819,21 +2819,21 @@
         <v>33пФ</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>17</v>
@@ -2845,13 +2845,13 @@
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2862,15 +2862,15 @@
         <v>22пФ</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -2888,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2903,10 +2903,10 @@
         <v>4,7мкФ</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE3FBD-8F83-4A7E-908E-D2EF3C06413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C5642-453A-448B-B7BE-E677926131F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12090" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="148">
   <si>
     <t>Part Number</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>K10-17-H90-001u</t>
+  </si>
+  <si>
+    <t>АЖЯР.673546.004ТУ</t>
+  </si>
+  <si>
+    <t>220мкФ</t>
+  </si>
+  <si>
+    <t>К53-65 "E"-10В-220мкФ±10%</t>
   </si>
 </sst>
 </file>
@@ -976,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,7 +2393,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M40" si="3">G28</f>
+        <f t="shared" ref="M28:M41" si="3">G28</f>
         <v>10мкФ</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -2424,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L40" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L41" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -2907,6 +2916,46 @@
       </c>
       <c r="O40" s="5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>К53-65 "E"-10В-220мкФ±10% АЖЯР.673546.004ТУ</v>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>220мкФ</v>
+      </c>
+      <c r="N41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C5642-453A-448B-B7BE-E677926131F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0CA1D-FA3F-4AA3-AFF6-529489AF177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12090" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="149">
   <si>
     <t>Part Number</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>К53-65 "E"-10В-220мкФ±10%</t>
+  </si>
+  <si>
+    <t>GRM1885C1H103JA01D</t>
   </si>
 </sst>
 </file>
@@ -985,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2396,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M41" si="3">G28</f>
+        <f t="shared" ref="M28:M42" si="3">G28</f>
         <v>10мкФ</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -2433,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L41" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L42" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -2956,6 +2959,43 @@
       </c>
       <c r="O41" s="5" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">GRM1885C1H103JA01D </v>
+      </c>
+      <c r="M42" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0,01мкФ</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0CA1D-FA3F-4AA3-AFF6-529489AF177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1D8A8-15EF-4629-B389-C8A74DE949F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="155">
   <si>
     <t>Part Number</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>GRM1885C1H103JA01D</t>
+  </si>
+  <si>
+    <t>CC1210KKX7R9BB104</t>
+  </si>
+  <si>
+    <t>TS20001H6R8KDT000R</t>
+  </si>
+  <si>
+    <t>293D106X9035D2TE3</t>
+  </si>
+  <si>
+    <t>293D227X9016E2TE3</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN1RO</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN120</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2414,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M42" si="3">G28</f>
+        <f t="shared" ref="M28:M48" si="3">G28</f>
         <v>10мкФ</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -2436,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L42" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L48" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -2996,6 +3014,210 @@
       </c>
       <c r="O42" s="5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC1210KKX7R9BB104 </v>
+      </c>
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0,1мкФ</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TS20001H6R8KDT000R </v>
+      </c>
+      <c r="M44" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>6,8мкФ</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">293D106X9035D2TE3 </v>
+      </c>
+      <c r="M45" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>10мкФ</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">293D227X9016E2TE3 </v>
+      </c>
+      <c r="M46" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>220мкФ</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603CRNPO9BN1RO </v>
+      </c>
+      <c r="M47" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0,001мкФ</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603JRNPO9BN120 </v>
+      </c>
+      <c r="M48" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>12пФ</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1D8A8-15EF-4629-B389-C8A74DE949F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F372DE7-EC42-4C56-AFA4-E5187B0BC52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="163">
   <si>
     <t>Part Number</t>
   </si>
@@ -466,18 +466,6 @@
     <t>С0805</t>
   </si>
   <si>
-    <t xml:space="preserve"> К10-17в-М1500-300пФ±5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> К10-17в-М1500-1200пФ±5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> К10-17в-М47-33пФ±5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> К10-17в-М47-22пФ±5%</t>
-  </si>
-  <si>
     <t>300пФ</t>
   </si>
   <si>
@@ -538,22 +526,58 @@
     <t>GRM1885C1H103JA01D</t>
   </si>
   <si>
-    <t>CC1210KKX7R9BB104</t>
-  </si>
-  <si>
-    <t>TS20001H6R8KDT000R</t>
-  </si>
-  <si>
     <t>293D106X9035D2TE3</t>
   </si>
   <si>
-    <t>293D227X9016E2TE3</t>
-  </si>
-  <si>
     <t>CC0603CRNPO9BN1RO</t>
   </si>
   <si>
     <t>CC0603JRNPO9BN120</t>
+  </si>
+  <si>
+    <t>1мкФ</t>
+  </si>
+  <si>
+    <t>С3224</t>
+  </si>
+  <si>
+    <t>К10-17в-М1500-300пФ±5%</t>
+  </si>
+  <si>
+    <t>К10-17в-М1500-1200пФ±5%</t>
+  </si>
+  <si>
+    <t>К10-17в-М47-33пФ±5%</t>
+  </si>
+  <si>
+    <t>К10-17в-М47-22пФ±5%</t>
+  </si>
+  <si>
+    <t>К10-79-25В-1мкФ±20% H30</t>
+  </si>
+  <si>
+    <t>CC1210X104J500</t>
+  </si>
+  <si>
+    <t>CC2220X824J500</t>
+  </si>
+  <si>
+    <t>С2220</t>
+  </si>
+  <si>
+    <t>Faithful Link</t>
+  </si>
+  <si>
+    <t>TAJE226K035RNJ</t>
+  </si>
+  <si>
+    <t>Kyosera</t>
+  </si>
+  <si>
+    <t>TAJD685K050RNJ</t>
+  </si>
+  <si>
+    <t>TAJE227K010RNJ</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,10 +1095,10 @@
         <v>109</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1124,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1174,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1224,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1274,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1324,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1374,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1424,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1474,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1524,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1574,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1674,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1724,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1774,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1823,7 +1847,7 @@
         <v xml:space="preserve"> АЖЯР.673546.004ТУ</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1873,7 +1897,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1923,7 +1947,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1973,7 +1997,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2023,7 +2047,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2073,7 +2097,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2123,7 +2147,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2134,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -2172,7 +2196,7 @@
         <v>ОЖО.460.107 ТУ</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2223,7 +2247,7 @@
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2274,7 +2298,7 @@
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2323,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2373,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2414,7 +2438,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M48" si="3">G28</f>
+        <f t="shared" ref="M28:M51" si="3">G28</f>
         <v>10мкФ</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -2422,7 +2446,7 @@
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L48" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L51" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -2465,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,7 +2532,7 @@
         <v>123</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2551,7 +2575,7 @@
         <v>123</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2594,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2680,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2723,18 +2747,18 @@
         <v>12</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
@@ -2746,38 +2770,38 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> К10-17в-М1500-300пФ±5% ОЖ0.460.107ТУ</v>
+        <v>К10-17в-М1500-300пФ±5% ОЖ0.460.107ТУ</v>
       </c>
       <c r="M36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>300пФ</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
@@ -2789,38 +2813,38 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> К10-17в-М1500-1200пФ±5% ОЖ0.460.107ТУ</v>
+        <v>К10-17в-М1500-1200пФ±5% ОЖ0.460.107ТУ</v>
       </c>
       <c r="M37" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1200пФ</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
@@ -2832,38 +2856,38 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> К10-17в-М47-33пФ±5% ОЖ0.460.107ТУ</v>
+        <v>К10-17в-М47-33пФ±5% ОЖ0.460.107ТУ</v>
       </c>
       <c r="M38" s="5" t="str">
         <f t="shared" si="3"/>
         <v>33пФ</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>17</v>
@@ -2881,26 +2905,26 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> К10-17в-М47-22пФ±5% ОЖ0.460.107ТУ</v>
+        <v>К10-17в-М47-22пФ±5% ОЖ0.460.107ТУ</v>
       </c>
       <c r="M39" s="5" t="str">
         <f t="shared" si="3"/>
         <v>22пФ</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -2918,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2933,15 +2957,15 @@
         <v>4,7мкФ</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>114</v>
@@ -2959,10 +2983,10 @@
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L41" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2973,15 +2997,15 @@
         <v>220мкФ</v>
       </c>
       <c r="N41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -3010,15 +3034,15 @@
         <v>0,01мкФ</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
@@ -3040,19 +3064,22 @@
       </c>
       <c r="L43" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">CC1210KKX7R9BB104 </v>
+        <v xml:space="preserve">CC1210X104J500 </v>
       </c>
       <c r="M43" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0,1мкФ</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O43" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>114</v>
@@ -3074,19 +3101,22 @@
       </c>
       <c r="L44" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TS20001H6R8KDT000R </v>
+        <v xml:space="preserve">TAJD685K050RNJ </v>
       </c>
       <c r="M44" s="5" t="str">
         <f t="shared" si="3"/>
         <v>6,8мкФ</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O44" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>114</v>
@@ -3115,12 +3145,12 @@
         <v>10мкФ</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>114</v>
@@ -3138,23 +3168,26 @@
         <v>10</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L46" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">293D227X9016E2TE3 </v>
+        <v xml:space="preserve">TAJE227K010RNJ </v>
       </c>
       <c r="M46" s="5" t="str">
         <f t="shared" si="3"/>
         <v>220мкФ</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>13</v>
@@ -3183,12 +3216,15 @@
         <v>0,001мкФ</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O47" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
@@ -3217,7 +3253,121 @@
         <v>12пФ</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="O48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>К10-79-25В-1мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
+      </c>
+      <c r="M49" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1мкФ</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC2220X824J500 </v>
+      </c>
+      <c r="M50" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1мкФ</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAJE226K035RNJ </v>
+      </c>
+      <c r="M51" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>22мкФ</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O51" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F372DE7-EC42-4C56-AFA4-E5187B0BC52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD5A4C-7F75-45C0-8071-F645577EB5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="164">
   <si>
     <t>Part Number</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>TAJE227K010RNJ</t>
+  </si>
+  <si>
+    <t>CC0603N120J500</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2441,7 @@
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
       <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M51" si="3">G28</f>
+        <f t="shared" ref="M28:M52" si="3">G28</f>
         <v>10мкФ</v>
       </c>
       <c r="N28" s="5" t="str">
@@ -2478,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L51" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L52" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3295,6 +3298,9 @@
       <c r="N49" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="O49" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -3368,6 +3374,43 @@
       </c>
       <c r="O51" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N120J500 </v>
+      </c>
+      <c r="M52" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>12пФ</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O52" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD5A4C-7F75-45C0-8071-F645577EB5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720A926-0DED-4383-9FB7-2E6C3AA9EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="170">
   <si>
     <t>Part Number</t>
   </si>
@@ -581,6 +581,24 @@
   </si>
   <si>
     <t>CC0603N120J500</t>
+  </si>
+  <si>
+    <t>CC0603N100J500</t>
+  </si>
+  <si>
+    <t>CC0603N101J500</t>
+  </si>
+  <si>
+    <t>TAJA225K020КТО</t>
+  </si>
+  <si>
+    <t>CC0603N1P0J500</t>
+  </si>
+  <si>
+    <t>GRM1885C1H220JMUR</t>
+  </si>
+  <si>
+    <t>АЖЯР.673511.004ТУ</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,11 +1155,11 @@
         <v>49</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L2" s="5" t="str">
         <f t="shared" ref="L2:L28" si="0">A2&amp;" "&amp;K2</f>
-        <v>К10-79-50В-2,2мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-2,2мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M2" s="5" t="str">
         <f>G2</f>
@@ -1187,11 +1205,11 @@
         <v>49</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-0,1мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-0,1мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M3" s="5" t="str">
         <f t="shared" ref="M3:M27" si="1">G3</f>
@@ -1237,11 +1255,11 @@
         <v>49</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-0,01мкФ±20% Н30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-0,01мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1287,11 +1305,11 @@
         <v>МП0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-0,01мкФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-0,01мкФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1337,11 +1355,11 @@
         <v>H30</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-25В-4700пФ±20% H30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-25В-4700пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1387,11 +1405,11 @@
         <v>МП0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-3900пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-3900пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1437,11 +1455,11 @@
         <v>МП0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1487,11 +1505,11 @@
         <v>МП0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-390пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-50В-390пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1537,11 +1555,11 @@
         <v>МП0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-100пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-100пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1587,11 +1605,11 @@
         <v>МП0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-47пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-47пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1637,11 +1655,11 @@
         <v>МП0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-36пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-36пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1687,11 +1705,11 @@
         <v>МП0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-12пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-12пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1737,11 +1755,11 @@
         <v>МП0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-10пФ±5% МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-10пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1787,11 +1805,11 @@
         <v>МП0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-100В-1пФ±0,25пФ МП0 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-100В-1пФ±0,25пФ МП0 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2481,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L52" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L57" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -2607,11 +2625,11 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L32" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M32" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2650,11 +2668,11 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>К10-79-25В-0,001мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-25В-0,001мкФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M33" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2693,11 +2711,11 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L34" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>К10-79-17В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-17В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M34" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2736,11 +2754,11 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
+        <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
       <c r="M35" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3411,6 +3429,186 @@
       </c>
       <c r="O52" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N100J500 </v>
+      </c>
+      <c r="M53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N1P0J500 </v>
+      </c>
+      <c r="M54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N101J500 </v>
+      </c>
+      <c r="M55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TAJA225K020КТО </v>
+      </c>
+      <c r="M56" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">GRM1885C1H220JMUR </v>
+      </c>
+      <c r="M57" t="s">
+        <v>120</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720A926-0DED-4383-9FB7-2E6C3AA9EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F218D79-0C52-418B-BB8E-7D9848BB67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="171">
   <si>
     <t>Part Number</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>АЖЯР.673511.004ТУ</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,9 +1076,10 @@
     <col min="12" max="12" width="47" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1125,11 @@
       <c r="O1" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I2,"-",G2,H2," ",J2)</f>
         <v>К10-79-50В-2,2мкФ±20% Н30</v>
@@ -1172,7 +1179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I3,"-",G3,H3," ",J3)</f>
         <v>К10-79-50В-0,1мкФ±20% Н30</v>
@@ -1222,7 +1229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I4,"-",G4,H4," ",J4)</f>
         <v>К10-79-50В-0,01мкФ±20% Н30</v>
@@ -1272,7 +1279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -1322,7 +1329,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -1522,7 +1529,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F218D79-0C52-418B-BB8E-7D9848BB67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2E478-93C2-426D-AC45-0D1B096B4E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="175">
   <si>
     <t>Part Number</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>К10-79-100В-3,3пФ±0,25пФ-МП0</t>
+  </si>
+  <si>
+    <t>СС0603N3P3C500</t>
+  </si>
+  <si>
+    <t>3,3пФ</t>
+  </si>
+  <si>
+    <t>3,3 пФ</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L57" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L59" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3616,6 +3628,75 @@
       </c>
       <c r="O57" s="5" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>К10-79-100В-3,3пФ±0,25пФ-МП0 АЖЯР.673511.004 ТУ</v>
+      </c>
+      <c r="M58" t="s">
+        <v>174</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">СС0603N3P3C500 </v>
+      </c>
+      <c r="M59" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2E478-93C2-426D-AC45-0D1B096B4E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397018D9-934D-423A-9B6C-2A130BC6FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,31 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397018D9-934D-423A-9B6C-2A130BC6FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7190E-5379-4947-9E93-C323722F9FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="176">
   <si>
     <t>Part Number</t>
   </si>
@@ -614,6 +603,9 @@
   </si>
   <si>
     <t>3,3 пФ</t>
+  </si>
+  <si>
+    <t>CC0603N472J500</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L59" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L60" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3697,6 +3689,36 @@
       </c>
       <c r="M59" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N472J500 </v>
+      </c>
+      <c r="M60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,20 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7190E-5379-4947-9E93-C323722F9FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DACF26-72F6-41C7-85EF-FC8D3F43C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="177">
   <si>
     <t>Part Number</t>
   </si>
@@ -607,12 +618,15 @@
   <si>
     <t>CC0603N472J500</t>
   </si>
+  <si>
+    <t>CC0603N821J500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +656,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -705,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -720,6 +741,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1058,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L60" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L62" si="4">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3719,6 +3741,81 @@
       </c>
       <c r="M60" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" t="s">
+        <v>169</v>
+      </c>
+      <c r="L61" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004ТУ</v>
+      </c>
+      <c r="M61" t="s">
+        <v>65</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CC0603N821J500 </v>
+      </c>
+      <c r="M62" t="s">
+        <v>65</v>
+      </c>
+      <c r="N62" t="s">
+        <v>138</v>
+      </c>
+      <c r="O62" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DACF26-72F6-41C7-85EF-FC8D3F43C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C192B4-6D59-47A3-9E37-30EDAE37D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="180">
   <si>
     <t>Part Number</t>
   </si>
@@ -190,21 +190,12 @@
 АЖЯР.673511.004ТУ</t>
   </si>
   <si>
-    <t>2,2мкФ</t>
-  </si>
-  <si>
     <t>50В</t>
   </si>
   <si>
     <t>Н30</t>
   </si>
   <si>
-    <t>0,1мкФ</t>
-  </si>
-  <si>
-    <t>0,01мкФ</t>
-  </si>
-  <si>
     <t>К10-79-50В-0,01мкФ±5% МП0</t>
   </si>
   <si>
@@ -236,36 +227,6 @@
   </si>
   <si>
     <t>К10-79-100В-1пФ±0,25пФ МП0</t>
-  </si>
-  <si>
-    <t>4700пФ</t>
-  </si>
-  <si>
-    <t>3900пФ</t>
-  </si>
-  <si>
-    <t>820пФ</t>
-  </si>
-  <si>
-    <t>390пФ</t>
-  </si>
-  <si>
-    <t>100пФ</t>
-  </si>
-  <si>
-    <t>47пФ</t>
-  </si>
-  <si>
-    <t>36пФ</t>
-  </si>
-  <si>
-    <t>12пФ</t>
-  </si>
-  <si>
-    <t>10пФ</t>
-  </si>
-  <si>
-    <t>1пФ</t>
   </si>
   <si>
     <r>
@@ -319,21 +280,6 @@
     <t>Фильтр</t>
   </si>
   <si>
-    <t>22мкФ</t>
-  </si>
-  <si>
-    <t>10мкФ</t>
-  </si>
-  <si>
-    <t>6,8мкФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100пФ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000пФ </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -412,9 +358,6 @@
     <t>К10-79-50В-0,47мкФ±20% H30</t>
   </si>
   <si>
-    <t>0,47мкФ</t>
-  </si>
-  <si>
     <t>К10-79-50В-4700пФ±20% МП0</t>
   </si>
   <si>
@@ -451,30 +394,12 @@
     <t>К10-79-25В-0,001мкФ±20% H30</t>
   </si>
   <si>
-    <t>22пФ</t>
-  </si>
-  <si>
-    <t>0,001мкФ</t>
-  </si>
-  <si>
-    <t>0,1пФ</t>
-  </si>
-  <si>
     <t>АЖЯР.673546,004ТУ</t>
   </si>
   <si>
     <t>С0805</t>
   </si>
   <si>
-    <t>300пФ</t>
-  </si>
-  <si>
-    <t>1200пФ</t>
-  </si>
-  <si>
-    <t>33пФ</t>
-  </si>
-  <si>
     <t>ОЖ0.460.107ТУ</t>
   </si>
   <si>
@@ -487,9 +412,6 @@
     <t>GRM32ER71H475KA88L</t>
   </si>
   <si>
-    <t>4,7мкФ</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -517,9 +439,6 @@
     <t>АЖЯР.673546.004ТУ</t>
   </si>
   <si>
-    <t>220мкФ</t>
-  </si>
-  <si>
     <t>К53-65 "E"-10В-220мкФ±10%</t>
   </si>
   <si>
@@ -535,9 +454,6 @@
     <t>CC0603JRNPO9BN120</t>
   </si>
   <si>
-    <t>1мкФ</t>
-  </si>
-  <si>
     <t>С3224</t>
   </si>
   <si>
@@ -610,16 +526,109 @@
     <t>СС0603N3P3C500</t>
   </si>
   <si>
-    <t>3,3пФ</t>
-  </si>
-  <si>
-    <t>3,3 пФ</t>
-  </si>
-  <si>
     <t>CC0603N472J500</t>
   </si>
   <si>
     <t>CC0603N821J500</t>
+  </si>
+  <si>
+    <t>2,2мк</t>
+  </si>
+  <si>
+    <t>0,1мк</t>
+  </si>
+  <si>
+    <t>0,01мк</t>
+  </si>
+  <si>
+    <t>1п</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22мк</t>
+  </si>
+  <si>
+    <t>10мк</t>
+  </si>
+  <si>
+    <t>6,8мк</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0,47мк</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,001мк</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4,7мк</t>
+  </si>
+  <si>
+    <t>220мк</t>
+  </si>
+  <si>
+    <t>1мк</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>Коммент</t>
+  </si>
+  <si>
+    <t>CC0805N103J500</t>
+  </si>
+  <si>
+    <t>2220Y5000824KJTWS2</t>
+  </si>
+  <si>
+    <t>0,82мк</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,12 +1109,13 @@
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="47" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1140,748 +1150,737 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I2,"-",G2,H2," ",J2)</f>
-        <v>К10-79-50В-2,2мкФ±20% Н30</v>
+        <v>К10-79-50В-2,2мк±20% Н30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L2" s="5" t="str">
         <f t="shared" ref="L2:L28" si="0">A2&amp;" "&amp;K2</f>
-        <v>К10-79-50В-2,2мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
-      </c>
-      <c r="M2" s="5" t="str">
-        <f>G2</f>
-        <v>2,2мкФ</v>
+        <v>К10-79-50В-2,2мк±20% Н30 АЖЯР.673511.004ТУ</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I3,"-",G3,H3," ",J3)</f>
-        <v>К10-79-50В-0,1мкФ±20% Н30</v>
+        <v>К10-79-50В-0,1мк±20% Н30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-0,1мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f t="shared" ref="M3:M27" si="1">G3</f>
-        <v>0,1мкФ</v>
+        <v>К10-79-50В-0,1мк±20% Н30 АЖЯР.673511.004ТУ</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>CONCATENATE("К10-79","-",I4,"-",G4,H4," ",J4)</f>
-        <v>К10-79-50В-0,01мкФ±20% Н30</v>
+        <v>К10-79-50В-0,01мк±20% Н30</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>К10-79-50В-0,01мкФ±20% Н30 АЖЯР.673511.004ТУ</v>
-      </c>
-      <c r="M4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0,01мкФ</v>
+        <v>К10-79-50В-0,01мк±20% Н30 АЖЯР.673511.004ТУ</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J15" si="2">(RIGHT(A5,3))</f>
+        <f t="shared" ref="J5:J15" si="1">(RIGHT(A5,3))</f>
         <v>МП0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,01мкФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0,01мкФ</v>
+      <c r="M5" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H30</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-25В-4700пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4700пФ</v>
+      <c r="M6" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-3900пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3900пФ</v>
+      <c r="M7" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>820пФ</v>
+      <c r="M8" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-50В-390пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>390пФ</v>
+      <c r="M9" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-100пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>100пФ</v>
+      <c r="M10" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-47пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>47пФ</v>
+      <c r="M11" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-36пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>36пФ</v>
+      <c r="M12" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-12пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>12пФ</v>
+      <c r="M13" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-10пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>10пФ</v>
+      <c r="M14" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>МП0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>К10-79-100В-1пФ±0,25пФ МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1пФ</v>
+      <c r="M15" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="str">
@@ -1892,16 +1891,15 @@
         <f t="shared" si="0"/>
         <v>К53-65 "Е"-32В-22мкФ±10% АЖЯР.673546.004ТУ</v>
       </c>
-      <c r="M16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>22мкФ</v>
+      <c r="M16" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="N16" s="5" t="str">
         <f>RIGHT(Лист2!N13,18)</f>
         <v xml:space="preserve"> АЖЯР.673546.004ТУ</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1910,28 +1908,28 @@
         <v>К53-65 "D"-16В-22мкФ±10%</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="str">
@@ -1942,16 +1940,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-16В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>22мкФ</v>
+      <c r="M17" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="N17" s="5" t="str">
         <f>RIGHT(Лист2!N14,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1960,28 +1957,28 @@
         <v>К53-65 "D"-20В-22мкФ±10%</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="str">
@@ -1992,16 +1989,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-20В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>22мкФ</v>
+      <c r="M18" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="N18" s="5" t="str">
         <f>RIGHT(Лист2!N15,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2010,28 +2006,28 @@
         <v>К53-65 "С"-10В-22мкФ±10%</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="str">
@@ -2042,16 +2038,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "С"-10В-22мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>22мкФ</v>
+      <c r="M19" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="N19" s="5" t="str">
         <f>RIGHT(Лист2!N16,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2060,28 +2055,28 @@
         <v>К53-65 "D"-32В-10мкФ±10%</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="str">
@@ -2092,16 +2087,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "D"-32В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>10мкФ</v>
+      <c r="M20" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="N20" s="5" t="str">
         <f>RIGHT(Лист2!N17,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2110,28 +2104,28 @@
         <v>К53-65 "E"-50В-6,8мкФ±10%</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="str">
@@ -2142,16 +2136,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "E"-50В-6,8мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>6,8мкФ</v>
+      <c r="M21" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="N21" s="5" t="str">
         <f>RIGHT(Лист2!N18,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2160,28 +2153,28 @@
         <v>К53-65 "А"-20В-2,2мкФ±10%</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="str">
@@ -2192,45 +2185,44 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "А"-20В-2,2мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2,2мкФ</v>
+      <c r="M22" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="N22" s="5" t="str">
         <f>RIGHT(Лист2!N19,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="str">
@@ -2241,45 +2233,44 @@
         <f t="shared" si="0"/>
         <v>К10-17в-50В-H90-0,01мкФ+80%/-20% ОЖО.460.107 ТУ</v>
       </c>
-      <c r="M23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0,01мкФ</v>
+      <c r="M23" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="N23" s="5" t="str">
         <f>RIGHT(Лист2!N20,14)</f>
         <v>ОЖО.460.107 ТУ</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>11</v>
@@ -2292,45 +2283,44 @@
         <f t="shared" si="0"/>
         <v>B33-100В-0,3А-100пФ ±20% МП0 АДПК.431145.007ТУ</v>
       </c>
-      <c r="M24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">100пФ </v>
+      <c r="M24" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="N24" s="5" t="str">
         <f>RIGHT(Лист2!N21,17)</f>
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>11</v>
@@ -2343,48 +2333,47 @@
         <f t="shared" si="0"/>
         <v>B33-50В-0,5А-1000пФ ±20% МП0 АДПК.431145.007ТУ</v>
       </c>
-      <c r="M25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1000пФ </v>
+      <c r="M25" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="N25" s="5" t="str">
         <f>RIGHT(Лист2!N22,17)</f>
         <v>АДПК.431145.007ТУ</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>12</v>
@@ -2393,44 +2382,43 @@
         <f t="shared" si="0"/>
         <v>К10-79-50В-0,47мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
-      <c r="M26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0,47мкФ</v>
+      <c r="M26" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>(RIGHT(A27,3))</f>
@@ -2443,44 +2431,43 @@
         <f t="shared" si="0"/>
         <v>К10-79-50В-4700пФ±20% МП0 АЖЯР.673511.004 ТУ</v>
       </c>
-      <c r="M27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4700пФ</v>
+      <c r="M27" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="str">
@@ -2491,39 +2478,38 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">К53-65 "E"-50В-10мкФ±10% АЖЯР.673546.004ТУ </v>
       </c>
-      <c r="M28" s="5" t="str">
-        <f t="shared" ref="M28:M52" si="3">G28</f>
-        <v>10мкФ</v>
+      <c r="M28" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="N28" s="5" t="str">
         <f>RIGHT(Лист2!N18,18)</f>
         <v xml:space="preserve">АЖЯР.673546.004ТУ </v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2532,1290 +2518,1422 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L62" si="4">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L66" si="2">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
-      <c r="M29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>1пФ</v>
+      <c r="M29" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="L30" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К53-65 "D" -16В-22пФ±10% АЖЯР.673546,004ТУ</v>
       </c>
-      <c r="M30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>22пФ</v>
+      <c r="M30" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="L31" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К53-65 "D" -32В-10пФ±10% АЖЯР.673546,004ТУ</v>
       </c>
-      <c r="M31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>10пФ</v>
+      <c r="M31" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L32" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,1пФ</v>
+      <c r="M32" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L33" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-25В-0,001мкФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,001мкФ</v>
+      <c r="M33" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L34" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-17В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,1пФ</v>
+      <c r="M34" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L35" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-25В-0,1пФ±20% H30 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,1пФ</v>
+      <c r="M35" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L36" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-17в-М1500-300пФ±5% ОЖ0.460.107ТУ</v>
       </c>
-      <c r="M36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>300пФ</v>
+      <c r="M36" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L37" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-17в-М1500-1200пФ±5% ОЖ0.460.107ТУ</v>
       </c>
-      <c r="M37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>1200пФ</v>
+      <c r="M37" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L38" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-17в-М47-33пФ±5% ОЖ0.460.107ТУ</v>
       </c>
-      <c r="M38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>33пФ</v>
+      <c r="M38" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L39" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-17в-М47-22пФ±5% ОЖ0.460.107ТУ</v>
       </c>
-      <c r="M39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>22пФ</v>
+      <c r="M39" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">GRM32ER71H475KA88L </v>
       </c>
-      <c r="M40" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>4,7мкФ</v>
+      <c r="M40" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="L41" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К53-65 "E"-10В-220мкФ±10% АЖЯР.673546.004ТУ</v>
       </c>
-      <c r="M41" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>220мкФ</v>
+      <c r="M41" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="N41" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="L42" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">GRM1885C1H103JA01D </v>
       </c>
-      <c r="M42" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,01мкФ</v>
+      <c r="M42" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="L43" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC1210X104J500 </v>
       </c>
-      <c r="M43" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,1мкФ</v>
+      <c r="M43" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O43" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="L44" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">TAJD685K050RNJ </v>
       </c>
-      <c r="M44" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>6,8мкФ</v>
+      <c r="M44" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O44" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="L45" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">293D106X9035D2TE3 </v>
       </c>
-      <c r="M45" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>10мкФ</v>
+      <c r="M45" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="L46" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">TAJE227K010RNJ </v>
       </c>
-      <c r="M46" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>220мкФ</v>
+      <c r="M46" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O46" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="L47" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603CRNPO9BN1RO </v>
       </c>
-      <c r="M47" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0,001мкФ</v>
+      <c r="M47" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O47" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="L48" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603JRNPO9BN120 </v>
       </c>
-      <c r="M48" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>12пФ</v>
+      <c r="M48" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O48" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-25В-1мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
-      <c r="M49" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>1мкФ</v>
+      <c r="M49" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="L50" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC2220X824J500 </v>
       </c>
-      <c r="M50" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>1мкФ</v>
+      <c r="M50" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O50" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="L51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">TAJE226K035RNJ </v>
       </c>
-      <c r="M51" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>22мкФ</v>
+      <c r="M51" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O51" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="L52" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N120J500 </v>
       </c>
-      <c r="M52" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>12пФ</v>
+      <c r="M52" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O52" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="s">
-        <v>71</v>
+      <c r="G53">
+        <v>10</v>
       </c>
       <c r="L53" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N100J500 </v>
       </c>
-      <c r="M53" t="s">
-        <v>71</v>
+      <c r="M53">
+        <v>10</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O53" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="L54" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N1P0J500 </v>
       </c>
-      <c r="M54" t="s">
-        <v>72</v>
+      <c r="M54" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O54" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="L55" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N101J500 </v>
       </c>
-      <c r="M55" t="s">
-        <v>67</v>
+      <c r="M55" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O55" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="L56" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">TAJA225K020КТО </v>
       </c>
-      <c r="M56" t="s">
-        <v>47</v>
+      <c r="M56" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O56" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="L57" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">GRM1885C1H220JMUR </v>
       </c>
-      <c r="M57" t="s">
-        <v>120</v>
+      <c r="M57" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L58" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-100В-3,3пФ±0,25пФ-МП0 АЖЯР.673511.004 ТУ</v>
       </c>
-      <c r="M58" t="s">
-        <v>174</v>
+      <c r="M58" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="N58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">СС0603N3P3C500 </v>
       </c>
-      <c r="M59" t="s">
-        <v>173</v>
+      <c r="M59" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L60" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N472J500 </v>
       </c>
-      <c r="M60" t="s">
-        <v>63</v>
+      <c r="M60" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L61" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>К10-79-16В-820пФ±5% МП0 АЖЯР.673511.004ТУ</v>
       </c>
-      <c r="M61" t="s">
-        <v>65</v>
+      <c r="M61" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="L62" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CC0603N821J500 </v>
       </c>
-      <c r="M62" t="s">
-        <v>65</v>
+      <c r="M62" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="N62" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>158</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">CC0603N120J500 </v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">CC0603N101J500 </v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">CC0805N103J500 </v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" ref="L66" si="3">A66&amp;" "&amp;K66</f>
+        <v xml:space="preserve">2220Y5000824KJTWS2 </v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C192B4-6D59-47A3-9E37-30EDAE37D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366BEC09-6001-4973-93C7-48376F90DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32895" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" ref="L29:L66" si="2">A29&amp;" "&amp;K29</f>
+        <f t="shared" ref="L29:L65" si="2">A29&amp;" "&amp;K29</f>
         <v>К10-79-25В-1пФ±20% H30 АЖЯР.673511.004 ТУ</v>
       </c>
       <c r="M29" s="5" t="s">

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366BEC09-6001-4973-93C7-48376F90DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5B411-296E-4D6E-8F8B-9B7C649BD6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32895" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="182">
   <si>
     <t>Part Number</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t>0,82мк</t>
+  </si>
+  <si>
+    <t>К10-79-50В-1мкФ±20% H30</t>
+  </si>
+  <si>
+    <t>С4032</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,7 +3929,7 @@
         <v>179</v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" ref="L66" si="3">A66&amp;" "&amp;K66</f>
+        <f t="shared" ref="L66:L67" si="3">A66&amp;" "&amp;K66</f>
         <v xml:space="preserve">2220Y5000824KJTWS2 </v>
       </c>
       <c r="M66" s="5" t="s">
@@ -3934,6 +3940,45 @@
       </c>
       <c r="O66" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>К10-79-50В-1мкФ±20% H30 АЖЯР.673511.004 ТУ</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5B411-296E-4D6E-8F8B-9B7C649BD6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF5CC0-A9A2-4B89-A85A-97FB074AF107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="183">
   <si>
     <t>Part Number</t>
   </si>
@@ -636,12 +636,15 @@
   <si>
     <t>С4032</t>
   </si>
+  <si>
+    <t>VISHAY INTERTECHNOLOGY INC.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +681,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -741,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -757,6 +768,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1097,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,6 +3188,9 @@
       <c r="N45" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="O45" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -3680,6 +3695,12 @@
       <c r="M59" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="N59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O59" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -3709,6 +3730,12 @@
       </c>
       <c r="M60" s="5" t="s">
         <v>151</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF5CC0-A9A2-4B89-A85A-97FB074AF107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FA683-5A95-4ECB-9EE4-217296599B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="184">
   <si>
     <t>Part Number</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>VISHAY INTERTECHNOLOGY INC.</t>
+  </si>
+  <si>
+    <t>К10-79-25В-4700пФ±5% H30</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,7 +3959,7 @@
         <v>179</v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" ref="L66:L67" si="3">A66&amp;" "&amp;K66</f>
+        <f t="shared" ref="L66:L68" si="3">A66&amp;" "&amp;K66</f>
         <v xml:space="preserve">2220Y5000824KJTWS2 </v>
       </c>
       <c r="M66" s="5" t="s">
@@ -4005,6 +4008,55 @@
         <v>12</v>
       </c>
       <c r="O67" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f t="shared" ref="J68" si="4">(RIGHT(A68,3))</f>
+        <v>H30</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L68" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>К10-79-25В-4700пФ±5% H30 АЖЯР.673511.004ТУ</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>108</v>
       </c>
     </row>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FA683-5A95-4ECB-9EE4-217296599B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9B5F2-D447-4622-88FE-24CFFA7534A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="185">
   <si>
     <t>Part Number</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>К10-79-25В-4700пФ±5% H30</t>
+  </si>
+  <si>
+    <t>06035C103KAT2A</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,7 +3962,7 @@
         <v>179</v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" ref="L66:L68" si="3">A66&amp;" "&amp;K66</f>
+        <f t="shared" ref="L66:L69" si="3">A66&amp;" "&amp;K66</f>
         <v xml:space="preserve">2220Y5000824KJTWS2 </v>
       </c>
       <c r="M66" s="5" t="s">
@@ -4058,6 +4061,42 @@
       </c>
       <c r="O68" s="5" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L69" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">06035C103KAT2A </v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O69" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/CapGOST.xlsx
+++ b/CapGOST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9B5F2-D447-4622-88FE-24CFFA7534A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B70302-EF20-4495-87C1-028E6637621A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="188">
   <si>
     <t>Part Number</t>
   </si>
@@ -644,6 +644,15 @@
   </si>
   <si>
     <t>06035C103KAT2A</t>
+  </si>
+  <si>
+    <t>СС2220KKX7R9BB105</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>СС2220X474M500</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,7 +3971,7 @@
         <v>179</v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" ref="L66:L69" si="3">A66&amp;" "&amp;K66</f>
+        <f t="shared" ref="L66:L71" si="3">A66&amp;" "&amp;K66</f>
         <v xml:space="preserve">2220Y5000824KJTWS2 </v>
       </c>
       <c r="M66" s="5" t="s">
@@ -4097,6 +4106,78 @@
       </c>
       <c r="O69" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">СС2220KKX7R9BB105 </v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">СС2220X474M500 </v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O71" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
